--- a/Code/Results/Cases/Case_0_240/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_240/res_bus/vm_pu.xlsx
@@ -418,158 +418,983 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>1.094952925271484</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>1.097603146509635</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>1.09321008547739</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>1.097048390792616</v>
       </c>
       <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>1.030027142045749</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>1.099761555308588</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>1.100232469396808</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>1.095850555663532</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>1.09967911605298</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>1.10132334286154</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1.02</v>
+      </c>
+      <c r="C3">
+        <v>1.100427856556347</v>
+      </c>
+      <c r="D3">
+        <v>1.103000309262816</v>
+      </c>
+      <c r="E3">
+        <v>1.098083790326632</v>
+      </c>
+      <c r="F3">
+        <v>1.102060375948338</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>1.030502834668926</v>
+      </c>
+      <c r="J3">
+        <v>1.104883105093271</v>
+      </c>
+      <c r="K3">
+        <v>1.105440366762665</v>
+      </c>
+      <c r="L3">
+        <v>1.100535330836709</v>
+      </c>
+      <c r="M3">
+        <v>1.104502620259579</v>
+      </c>
+      <c r="N3">
+        <v>1.106452165834367</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>2</v>
       </c>
+      <c r="B4">
+        <v>1.02</v>
+      </c>
+      <c r="C4">
+        <v>1.103907528183417</v>
+      </c>
+      <c r="D4">
+        <v>1.106430333660146</v>
+      </c>
+      <c r="E4">
+        <v>1.101178716294035</v>
+      </c>
+      <c r="F4">
+        <v>1.105237965595576</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>1.030796661526513</v>
+      </c>
+      <c r="J4">
+        <v>1.10813548615601</v>
+      </c>
+      <c r="K4">
+        <v>1.108748331577549</v>
+      </c>
+      <c r="L4">
+        <v>1.103508305416639</v>
+      </c>
+      <c r="M4">
+        <v>1.107558584938243</v>
+      </c>
+      <c r="N4">
+        <v>1.109709165651268</v>
+      </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1">
         <v>3</v>
       </c>
+      <c r="B5">
+        <v>1.02</v>
+      </c>
+      <c r="C5">
+        <v>1.105355907223033</v>
+      </c>
+      <c r="D5">
+        <v>1.1078579929376</v>
+      </c>
+      <c r="E5">
+        <v>1.102466315895128</v>
+      </c>
+      <c r="F5">
+        <v>1.106558717246897</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>1.030916906522223</v>
+      </c>
+      <c r="J5">
+        <v>1.109488611364367</v>
+      </c>
+      <c r="K5">
+        <v>1.110124761522389</v>
+      </c>
+      <c r="L5">
+        <v>1.104744696380216</v>
+      </c>
+      <c r="M5">
+        <v>1.108828272997317</v>
+      </c>
+      <c r="N5">
+        <v>1.111064212452627</v>
+      </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1">
         <v>4</v>
       </c>
+      <c r="B6">
+        <v>1.02</v>
+      </c>
+      <c r="C6">
+        <v>1.105598264511432</v>
+      </c>
+      <c r="D6">
+        <v>1.108096879929823</v>
+      </c>
+      <c r="E6">
+        <v>1.102681732693888</v>
+      </c>
+      <c r="F6">
+        <v>1.106779607479949</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>1.030936905714972</v>
+      </c>
+      <c r="J6">
+        <v>1.109714991837126</v>
+      </c>
+      <c r="K6">
+        <v>1.110355051470703</v>
+      </c>
+      <c r="L6">
+        <v>1.104951518192908</v>
+      </c>
+      <c r="M6">
+        <v>1.109040593033617</v>
+      </c>
+      <c r="N6">
+        <v>1.111290914411624</v>
+      </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1">
         <v>5</v>
       </c>
+      <c r="B7">
+        <v>1.02</v>
+      </c>
+      <c r="C7">
+        <v>1.103926937598467</v>
+      </c>
+      <c r="D7">
+        <v>1.106449465631897</v>
+      </c>
+      <c r="E7">
+        <v>1.101195973639974</v>
+      </c>
+      <c r="F7">
+        <v>1.105255672166811</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>1.030798281048022</v>
+      </c>
+      <c r="J7">
+        <v>1.108153621646778</v>
+      </c>
+      <c r="K7">
+        <v>1.108766778705248</v>
+      </c>
+      <c r="L7">
+        <v>1.103524878290788</v>
+      </c>
+      <c r="M7">
+        <v>1.10757560894611</v>
+      </c>
+      <c r="N7">
+        <v>1.109727326896514</v>
+      </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1">
         <v>6</v>
       </c>
+      <c r="B8">
+        <v>1.02</v>
+      </c>
+      <c r="C8">
+        <v>1.096816615849033</v>
+      </c>
+      <c r="D8">
+        <v>1.099440409384673</v>
+      </c>
+      <c r="E8">
+        <v>1.09486966443191</v>
+      </c>
+      <c r="F8">
+        <v>1.098756132387886</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>1.030190840255201</v>
+      </c>
+      <c r="J8">
+        <v>1.101505517132474</v>
+      </c>
+      <c r="K8">
+        <v>1.102005676621036</v>
+      </c>
+      <c r="L8">
+        <v>1.097446215813479</v>
+      </c>
+      <c r="M8">
+        <v>1.101323082522024</v>
+      </c>
+      <c r="N8">
+        <v>1.103069781311251</v>
+      </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1">
         <v>7</v>
       </c>
+      <c r="B9">
+        <v>1.02</v>
+      </c>
+      <c r="C9">
+        <v>1.083776247975476</v>
+      </c>
+      <c r="D9">
+        <v>1.086584100189245</v>
+      </c>
+      <c r="E9">
+        <v>1.083246480028841</v>
+      </c>
+      <c r="F9">
+        <v>1.086773995449786</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>1.029010182204936</v>
+      </c>
+      <c r="J9">
+        <v>1.08929151775259</v>
+      </c>
+      <c r="K9">
+        <v>1.08959003977445</v>
+      </c>
+      <c r="L9">
+        <v>1.086262263767364</v>
+      </c>
+      <c r="M9">
+        <v>1.089779376925972</v>
+      </c>
+      <c r="N9">
+        <v>1.090838436651282</v>
+      </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="1">
         <v>8</v>
       </c>
+      <c r="B10">
+        <v>1.02</v>
+      </c>
+      <c r="C10">
+        <v>1.074695973941912</v>
+      </c>
+      <c r="D10">
+        <v>1.077630984607626</v>
+      </c>
+      <c r="E10">
+        <v>1.075139170704428</v>
+      </c>
+      <c r="F10">
+        <v>1.078388970997591</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>1.028144078529508</v>
+      </c>
+      <c r="J10">
+        <v>1.080772207834651</v>
+      </c>
+      <c r="K10">
+        <v>1.08093414992369</v>
+      </c>
+      <c r="L10">
+        <v>1.078450520741992</v>
+      </c>
+      <c r="M10">
+        <v>1.08168965482304</v>
+      </c>
+      <c r="N10">
+        <v>1.082307028336081</v>
+      </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="1">
         <v>9</v>
       </c>
+      <c r="B11">
+        <v>1.02</v>
+      </c>
+      <c r="C11">
+        <v>1.070661868428723</v>
+      </c>
+      <c r="D11">
+        <v>1.07365316161173</v>
+      </c>
+      <c r="E11">
+        <v>1.071534078456452</v>
+      </c>
+      <c r="F11">
+        <v>1.074653940386697</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <v>1.027749109794162</v>
+      </c>
+      <c r="J11">
+        <v>1.076983891811206</v>
+      </c>
+      <c r="K11">
+        <v>1.077086070471406</v>
+      </c>
+      <c r="L11">
+        <v>1.074974263944686</v>
+      </c>
+      <c r="M11">
+        <v>1.078083423686893</v>
+      </c>
+      <c r="N11">
+        <v>1.078513332469357</v>
+      </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="1">
         <v>10</v>
       </c>
+      <c r="B12">
+        <v>1.02</v>
+      </c>
+      <c r="C12">
+        <v>1.069147078021078</v>
+      </c>
+      <c r="D12">
+        <v>1.072159475989964</v>
+      </c>
+      <c r="E12">
+        <v>1.070179896568758</v>
+      </c>
+      <c r="F12">
+        <v>1.073249984648095</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <v>1.027599293087797</v>
+      </c>
+      <c r="J12">
+        <v>1.075560878894946</v>
+      </c>
+      <c r="K12">
+        <v>1.07564075477939</v>
+      </c>
+      <c r="L12">
+        <v>1.073668083985138</v>
+      </c>
+      <c r="M12">
+        <v>1.076727469607068</v>
+      </c>
+      <c r="N12">
+        <v>1.077088298711534</v>
+      </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="1">
         <v>11</v>
       </c>
+      <c r="B13">
+        <v>1.02</v>
+      </c>
+      <c r="C13">
+        <v>1.069472761815223</v>
+      </c>
+      <c r="D13">
+        <v>1.072480623473078</v>
+      </c>
+      <c r="E13">
+        <v>1.070471070941467</v>
+      </c>
+      <c r="F13">
+        <v>1.073551904876516</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="I13">
+        <v>1.027631571807528</v>
+      </c>
+      <c r="J13">
+        <v>1.075866853585964</v>
+      </c>
+      <c r="K13">
+        <v>1.075951518370861</v>
+      </c>
+      <c r="L13">
+        <v>1.07394895483058</v>
+      </c>
+      <c r="M13">
+        <v>1.077019085750964</v>
+      </c>
+      <c r="N13">
+        <v>1.077394707921709</v>
+      </c>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="1">
         <v>12</v>
       </c>
+      <c r="B14">
+        <v>1.02</v>
+      </c>
+      <c r="C14">
+        <v>1.070536994707269</v>
+      </c>
+      <c r="D14">
+        <v>1.073530028266834</v>
+      </c>
+      <c r="E14">
+        <v>1.071422454530559</v>
+      </c>
+      <c r="F14">
+        <v>1.074538233247699</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="I14">
+        <v>1.027736789974373</v>
+      </c>
+      <c r="J14">
+        <v>1.07686659436648</v>
+      </c>
+      <c r="K14">
+        <v>1.076966931655772</v>
+      </c>
+      <c r="L14">
+        <v>1.074866604768619</v>
+      </c>
+      <c r="M14">
+        <v>1.077971681000283</v>
+      </c>
+      <c r="N14">
+        <v>1.078395868448805</v>
+      </c>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="1">
         <v>13</v>
       </c>
+      <c r="B15">
+        <v>1.02</v>
+      </c>
+      <c r="C15">
+        <v>1.071190507495102</v>
+      </c>
+      <c r="D15">
+        <v>1.074174431816699</v>
+      </c>
+      <c r="E15">
+        <v>1.072006606259134</v>
+      </c>
+      <c r="F15">
+        <v>1.075143713974874</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <v>1.027801203054744</v>
+      </c>
+      <c r="J15">
+        <v>1.077480436531572</v>
+      </c>
+      <c r="K15">
+        <v>1.077590416068458</v>
+      </c>
+      <c r="L15">
+        <v>1.075429992097635</v>
+      </c>
+      <c r="M15">
+        <v>1.078556399430553</v>
+      </c>
+      <c r="N15">
+        <v>1.07901058234018</v>
+      </c>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
+      <c r="B16">
+        <v>1.02</v>
+      </c>
+      <c r="C16">
+        <v>1.074961467507549</v>
+      </c>
+      <c r="D16">
+        <v>1.077892769918743</v>
+      </c>
+      <c r="E16">
+        <v>1.07537636253038</v>
+      </c>
+      <c r="F16">
+        <v>1.078634577845581</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="I16">
+        <v>1.028169861833788</v>
+      </c>
+      <c r="J16">
+        <v>1.081021453895985</v>
+      </c>
+      <c r="K16">
+        <v>1.081187348289097</v>
+      </c>
+      <c r="L16">
+        <v>1.07867918171085</v>
+      </c>
+      <c r="M16">
+        <v>1.081926734962432</v>
+      </c>
+      <c r="N16">
+        <v>1.082556628355412</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
+      <c r="B17">
+        <v>1.02</v>
+      </c>
+      <c r="C17">
+        <v>1.077298839682959</v>
+      </c>
+      <c r="D17">
+        <v>1.080197471409756</v>
+      </c>
+      <c r="E17">
+        <v>1.077464200095943</v>
+      </c>
+      <c r="F17">
+        <v>1.080795753239943</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="I17">
+        <v>1.028395696929872</v>
+      </c>
+      <c r="J17">
+        <v>1.083215394083235</v>
+      </c>
+      <c r="K17">
+        <v>1.083416188436094</v>
+      </c>
+      <c r="L17">
+        <v>1.080691632101298</v>
+      </c>
+      <c r="M17">
+        <v>1.084012569089471</v>
+      </c>
+      <c r="N17">
+        <v>1.084753684189375</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:1">
+      <c r="B18">
+        <v>1.02</v>
+      </c>
+      <c r="C18">
+        <v>1.078652389923442</v>
+      </c>
+      <c r="D18">
+        <v>1.081532082206528</v>
+      </c>
+      <c r="E18">
+        <v>1.078672938429987</v>
+      </c>
+      <c r="F18">
+        <v>1.082046337604229</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="I18">
+        <v>1.028525506812006</v>
+      </c>
+      <c r="J18">
+        <v>1.084485558241392</v>
+      </c>
+      <c r="K18">
+        <v>1.084706649735571</v>
+      </c>
+      <c r="L18">
+        <v>1.08185647938379</v>
+      </c>
+      <c r="M18">
+        <v>1.085219296640615</v>
+      </c>
+      <c r="N18">
+        <v>1.086025652126327</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:1">
+      <c r="B19">
+        <v>1.02</v>
+      </c>
+      <c r="C19">
+        <v>1.079112281872631</v>
+      </c>
+      <c r="D19">
+        <v>1.081985535661676</v>
+      </c>
+      <c r="E19">
+        <v>1.07908357556921</v>
+      </c>
+      <c r="F19">
+        <v>1.082471086858956</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="I19">
+        <v>1.028569446911077</v>
+      </c>
+      <c r="J19">
+        <v>1.084917063046511</v>
+      </c>
+      <c r="K19">
+        <v>1.085145065564456</v>
+      </c>
+      <c r="L19">
+        <v>1.082252164009333</v>
+      </c>
+      <c r="M19">
+        <v>1.085629106283054</v>
+      </c>
+      <c r="N19">
+        <v>1.086457769717764</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:1">
+      <c r="B20">
+        <v>1.02</v>
+      </c>
+      <c r="C20">
+        <v>1.077049082187107</v>
+      </c>
+      <c r="D20">
+        <v>1.079951206979433</v>
+      </c>
+      <c r="E20">
+        <v>1.077241138364458</v>
+      </c>
+      <c r="F20">
+        <v>1.080564919693051</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="I20">
+        <v>1.028371665913614</v>
+      </c>
+      <c r="J20">
+        <v>1.082980996675356</v>
+      </c>
+      <c r="K20">
+        <v>1.083178052810482</v>
+      </c>
+      <c r="L20">
+        <v>1.080476650191264</v>
+      </c>
+      <c r="M20">
+        <v>1.083789809657568</v>
+      </c>
+      <c r="N20">
+        <v>1.084518953910292</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:1">
+      <c r="B21">
+        <v>1.02</v>
+      </c>
+      <c r="C21">
+        <v>1.070224064041951</v>
+      </c>
+      <c r="D21">
+        <v>1.073221458485445</v>
+      </c>
+      <c r="E21">
+        <v>1.071142719758196</v>
+      </c>
+      <c r="F21">
+        <v>1.07424825021678</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="I21">
+        <v>1.027705892579553</v>
+      </c>
+      <c r="J21">
+        <v>1.076572641370795</v>
+      </c>
+      <c r="K21">
+        <v>1.076668366455188</v>
+      </c>
+      <c r="L21">
+        <v>1.074596799510505</v>
+      </c>
+      <c r="M21">
+        <v>1.077691626955116</v>
+      </c>
+      <c r="N21">
+        <v>1.078101498006149</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:1">
+      <c r="B22">
+        <v>1.02</v>
+      </c>
+      <c r="C22">
+        <v>1.065837802925721</v>
+      </c>
+      <c r="D22">
+        <v>1.068896256768844</v>
+      </c>
+      <c r="E22">
+        <v>1.067220607825532</v>
+      </c>
+      <c r="F22">
+        <v>1.070180154989668</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="I22">
+        <v>1.027269251946899</v>
+      </c>
+      <c r="J22">
+        <v>1.072451157381829</v>
+      </c>
+      <c r="K22">
+        <v>1.072482564344348</v>
+      </c>
+      <c r="L22">
+        <v>1.070812968873367</v>
+      </c>
+      <c r="M22">
+        <v>1.073761838496223</v>
+      </c>
+      <c r="N22">
+        <v>1.073974161037179</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="1:1">
+      <c r="B23">
+        <v>1.02</v>
+      </c>
+      <c r="C23">
+        <v>1.06817240363661</v>
+      </c>
+      <c r="D23">
+        <v>1.071198373372109</v>
+      </c>
+      <c r="E23">
+        <v>1.069308427922053</v>
+      </c>
+      <c r="F23">
+        <v>1.072346213108387</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="I23">
+        <v>1.027502473402194</v>
+      </c>
+      <c r="J23">
+        <v>1.074645112445668</v>
+      </c>
+      <c r="K23">
+        <v>1.074710676874754</v>
+      </c>
+      <c r="L23">
+        <v>1.072827395479075</v>
+      </c>
+      <c r="M23">
+        <v>1.075854481896951</v>
+      </c>
+      <c r="N23">
+        <v>1.076171231768858</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="1:1">
+      <c r="B24">
+        <v>1.02</v>
+      </c>
+      <c r="C24">
+        <v>1.077161967060624</v>
+      </c>
+      <c r="D24">
+        <v>1.08006251312713</v>
+      </c>
+      <c r="E24">
+        <v>1.077341958299248</v>
+      </c>
+      <c r="F24">
+        <v>1.080669254248774</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+      <c r="I24">
+        <v>1.028382530407943</v>
+      </c>
+      <c r="J24">
+        <v>1.083086940138645</v>
+      </c>
+      <c r="K24">
+        <v>1.083285685596327</v>
+      </c>
+      <c r="L24">
+        <v>1.080573818953484</v>
+      </c>
+      <c r="M24">
+        <v>1.08389049559627</v>
+      </c>
+      <c r="N24">
+        <v>1.08462504782545</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
+      </c>
+      <c r="B25">
+        <v>1.02</v>
+      </c>
+      <c r="C25">
+        <v>1.087212309496866</v>
+      </c>
+      <c r="D25">
+        <v>1.089971845844043</v>
+      </c>
+      <c r="E25">
+        <v>1.086311525557978</v>
+      </c>
+      <c r="F25">
+        <v>1.089938428605097</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="I25">
+        <v>1.029328955505285</v>
+      </c>
+      <c r="J25">
+        <v>1.092512331201884</v>
+      </c>
+      <c r="K25">
+        <v>1.092863325594926</v>
+      </c>
+      <c r="L25">
+        <v>1.089213337554517</v>
+      </c>
+      <c r="M25">
+        <v>1.092830002344639</v>
+      </c>
+      <c r="N25">
+        <v>1.094063824025106</v>
       </c>
     </row>
   </sheetData>
